--- a/Cleaning/Household/household_cleaned.xlsx
+++ b/Cleaning/Household/household_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zctpj17_ucl_ac_uk/Documents/ECON0053 Economics of Tax Policy/Grp Project/Quantitative/Cleaning/Household/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1CDA45B8046EEABFA91D8744D2EC574D813129F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63622A2C-23D2-1A45-ADD0-CF0FC85AC029}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_1CDA45B8046EEABFA91D8744D2EC574D813129F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A197E57-D38C-DA46-AD83-9212E266A1E8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="800" windowWidth="35760" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="800" windowWidth="35760" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,6 +141,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -169,20 +183,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -196,9 +196,33 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E70733F-45E0-E24E-9D32-2D41CE9784C2}" name="Table1" displayName="Table1" ref="A1:E217" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:E217" xr:uid="{9E70733F-45E0-E24E-9D32-2D41CE9784C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E70733F-45E0-E24E-9D32-2D41CE9784C2}" name="Table1" displayName="Table1" ref="A1:E217" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:E217" xr:uid="{9E70733F-45E0-E24E-9D32-2D41CE9784C2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2019"/>
+        <filter val="2020"/>
+        <filter val="2021"/>
+        <filter val="2022"/>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Ontario"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1st quintile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{89EC8472-06F2-8248-80F9-25D8FA93C356}" name="REF_DATE"/>
     <tableColumn id="2" xr3:uid="{A25E3B85-3B0D-E44A-9791-2F211C15CD5D}" name="Region"/>
@@ -500,7 +524,7 @@
   <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -527,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -544,7 +568,7 @@
         <v>15675430</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -561,7 +585,7 @@
         <v>5763202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -578,7 +602,7 @@
         <v>540892</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -595,7 +619,7 @@
         <v>477108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -612,7 +636,7 @@
         <v>1706524</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -629,7 +653,7 @@
         <v>18040</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -663,7 +687,7 @@
         <v>1176865</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -680,7 +704,7 @@
         <v>95302</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -697,7 +721,7 @@
         <v>67501</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -714,7 +738,7 @@
         <v>212525</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -731,7 +755,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -748,7 +772,7 @@
         <v>3135086</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -765,7 +789,7 @@
         <v>1045892</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -782,7 +806,7 @@
         <v>113395</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -799,7 +823,7 @@
         <v>84008</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -816,7 +840,7 @@
         <v>265583</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -833,7 +857,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -850,7 +874,7 @@
         <v>3135086</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -867,7 +891,7 @@
         <v>1102064</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -884,7 +908,7 @@
         <v>113961</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -901,7 +925,7 @@
         <v>99012</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -918,7 +942,7 @@
         <v>310740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -935,7 +959,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -952,7 +976,7 @@
         <v>3135086</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -969,7 +993,7 @@
         <v>1196578</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -986,7 +1010,7 @@
         <v>119770</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1003,7 +1027,7 @@
         <v>112092</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1020,7 +1044,7 @@
         <v>351339</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1037,7 +1061,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1054,7 +1078,7 @@
         <v>3135086</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>1241804</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>98465</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>114496</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1122,7 +1146,7 @@
         <v>566337</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>6136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1156,7 +1180,7 @@
         <v>15846229</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1173,7 +1197,7 @@
         <v>5831821</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1190,7 +1214,7 @@
         <v>545942</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>478594</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1224,7 +1248,7 @@
         <v>1731289</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>18536</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1275,7 +1299,7 @@
         <v>1208939</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1292,7 +1316,7 @@
         <v>103788</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1309,7 +1333,7 @@
         <v>56398</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1326,7 +1350,7 @@
         <v>235915</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1360,7 +1384,7 @@
         <v>3169246</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>1054243</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -1394,7 +1418,7 @@
         <v>118950</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -1411,7 +1435,7 @@
         <v>104603</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -1428,7 +1452,7 @@
         <v>271607</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -1445,7 +1469,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -1462,7 +1486,7 @@
         <v>3169246</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>1097704</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -1496,7 +1520,7 @@
         <v>109393</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -1513,7 +1537,7 @@
         <v>101501</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -1530,7 +1554,7 @@
         <v>296182</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -1547,7 +1571,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -1564,7 +1588,7 @@
         <v>3169246</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2020</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>1230810</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -1598,7 +1622,7 @@
         <v>113599</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>97553</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>362951</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -1649,7 +1673,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>3169246</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -1683,7 +1707,7 @@
         <v>1240126</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -1700,7 +1724,7 @@
         <v>100213</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -1717,7 +1741,7 @@
         <v>118538</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -1734,7 +1758,7 @@
         <v>564635</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>6316</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -1768,7 +1792,7 @@
         <v>15930084</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -1785,7 +1809,7 @@
         <v>5876811</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -1802,7 +1826,7 @@
         <v>546743</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -1819,7 +1843,7 @@
         <v>479062</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -1836,7 +1860,7 @@
         <v>1734394</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>18901</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -1887,7 +1911,7 @@
         <v>1286480</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -1904,7 +1928,7 @@
         <v>102295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -1921,7 +1945,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>204524</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -1955,7 +1979,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -1972,7 +1996,7 @@
         <v>3186017</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -1989,7 +2013,7 @@
         <v>1051434</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -2006,7 +2030,7 @@
         <v>118844</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>116864</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>292809</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -2057,7 +2081,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>3186017</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>1100936</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -2108,7 +2132,7 @@
         <v>112945</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v>116773</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -2142,7 +2166,7 @@
         <v>274423</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -2159,7 +2183,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -2176,7 +2200,7 @@
         <v>3186017</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>1203756</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -2210,7 +2234,7 @@
         <v>122750</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>96090</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -2244,7 +2268,7 @@
         <v>374880</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -2261,7 +2285,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -2278,7 +2302,7 @@
         <v>3186017</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -2295,7 +2319,7 @@
         <v>1234204</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>89909</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -2329,7 +2353,7 @@
         <v>108123</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -2346,7 +2370,7 @@
         <v>587757</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -2363,7 +2387,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -2380,7 +2404,7 @@
         <v>16235896</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2022</v>
       </c>
@@ -2397,7 +2421,7 @@
         <v>5993471</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2022</v>
       </c>
@@ -2414,7 +2438,7 @@
         <v>556371</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2022</v>
       </c>
@@ -2431,7 +2455,7 @@
         <v>487434</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -2448,7 +2472,7 @@
         <v>1765274</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2022</v>
       </c>
@@ -2465,7 +2489,7 @@
         <v>19307</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -2499,7 +2523,7 @@
         <v>1404370</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2022</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>103495</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2022</v>
       </c>
@@ -2533,7 +2557,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>245238</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -2567,7 +2591,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -2584,7 +2608,7 @@
         <v>3247179</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -2601,7 +2625,7 @@
         <v>1028033</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2022</v>
       </c>
@@ -2618,7 +2642,7 @@
         <v>119469</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2022</v>
       </c>
@@ -2635,7 +2659,7 @@
         <v>112073</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -2652,7 +2676,7 @@
         <v>276414</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -2669,7 +2693,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2022</v>
       </c>
@@ -2686,7 +2710,7 @@
         <v>3247179</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2022</v>
       </c>
@@ -2703,7 +2727,7 @@
         <v>1076845</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -2720,7 +2744,7 @@
         <v>110352</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2022</v>
       </c>
@@ -2737,7 +2761,7 @@
         <v>114251</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2022</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>285966</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2022</v>
       </c>
@@ -2771,7 +2795,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>3247179</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2022</v>
       </c>
@@ -2805,7 +2829,7 @@
         <v>1231275</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -2822,7 +2846,7 @@
         <v>117483</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2022</v>
       </c>
@@ -2839,7 +2863,7 @@
         <v>97800</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2022</v>
       </c>
@@ -2856,7 +2880,7 @@
         <v>361048</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2022</v>
       </c>
@@ -2873,7 +2897,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>3247179</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2022</v>
       </c>
@@ -2907,7 +2931,7 @@
         <v>1252949</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2022</v>
       </c>
@@ -2924,7 +2948,7 @@
         <v>105572</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -2941,7 +2965,7 @@
         <v>117390</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -2958,7 +2982,7 @@
         <v>596608</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -2975,7 +2999,7 @@
         <v>6577</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2023</v>
       </c>
@@ -2992,7 +3016,7 @@
         <v>16663734</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2023</v>
       </c>
@@ -3009,7 +3033,7 @@
         <v>6170590</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -3026,7 +3050,7 @@
         <v>568529</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -3043,7 +3067,7 @@
         <v>495418</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -3060,7 +3084,7 @@
         <v>1837134</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2023</v>
       </c>
@@ -3077,7 +3101,7 @@
         <v>19866</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2023</v>
       </c>
@@ -3111,7 +3135,7 @@
         <v>1453486</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2023</v>
       </c>
@@ -3128,7 +3152,7 @@
         <v>79967</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2023</v>
       </c>
@@ -3145,7 +3169,7 @@
         <v>45995</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2023</v>
       </c>
@@ -3162,7 +3186,7 @@
         <v>234626</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -3179,7 +3203,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2023</v>
       </c>
@@ -3196,7 +3220,7 @@
         <v>3332747</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2023</v>
       </c>
@@ -3213,7 +3237,7 @@
         <v>1047929</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2023</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>125134</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2023</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>125575</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2023</v>
       </c>
@@ -3264,7 +3288,7 @@
         <v>308066</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2023</v>
       </c>
@@ -3281,7 +3305,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2023</v>
       </c>
@@ -3298,7 +3322,7 @@
         <v>3332747</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -3315,7 +3339,7 @@
         <v>1133997</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -3332,7 +3356,7 @@
         <v>125262</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2023</v>
       </c>
@@ -3349,7 +3373,7 @@
         <v>115475</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2023</v>
       </c>
@@ -3366,7 +3390,7 @@
         <v>280407</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2023</v>
       </c>
@@ -3383,7 +3407,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2023</v>
       </c>
@@ -3400,7 +3424,7 @@
         <v>3332747</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2023</v>
       </c>
@@ -3417,7 +3441,7 @@
         <v>1253681</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2023</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>127131</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2023</v>
       </c>
@@ -3451,7 +3475,7 @@
         <v>94279</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2023</v>
       </c>
@@ -3468,7 +3492,7 @@
         <v>403911</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2023</v>
       </c>
@@ -3485,7 +3509,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2023</v>
       </c>
@@ -3502,7 +3526,7 @@
         <v>3332747</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2023</v>
       </c>
@@ -3519,7 +3543,7 @@
         <v>1281498</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2023</v>
       </c>
@@ -3536,7 +3560,7 @@
         <v>111035</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2023</v>
       </c>
@@ -3553,7 +3577,7 @@
         <v>114096</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2023</v>
       </c>
@@ -3570,7 +3594,7 @@
         <v>610125</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2023</v>
       </c>
@@ -3587,7 +3611,7 @@
         <v>6771</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2024</v>
       </c>
@@ -3604,7 +3628,7 @@
         <v>17080771</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2024</v>
       </c>
@@ -3621,7 +3645,7 @@
         <v>6339060</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2024</v>
       </c>
@@ -3638,7 +3662,7 @@
         <v>580414</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2024</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>506152</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2024</v>
       </c>
@@ -3672,7 +3696,7 @@
         <v>1914842</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2024</v>
       </c>
@@ -3689,7 +3713,7 @@
         <v>20510</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2024</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>3416154</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2024</v>
       </c>
@@ -3723,7 +3747,7 @@
         <v>1417179</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2024</v>
       </c>
@@ -3740,7 +3764,7 @@
         <v>100887</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2024</v>
       </c>
@@ -3757,7 +3781,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2024</v>
       </c>
@@ -3774,7 +3798,7 @@
         <v>275468</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2024</v>
       </c>
@@ -3791,7 +3815,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2024</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>3416154</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2024</v>
       </c>
@@ -3825,7 +3849,7 @@
         <v>1099841</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2024</v>
       </c>
@@ -3842,7 +3866,7 @@
         <v>129206</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2024</v>
       </c>
@@ -3859,7 +3883,7 @@
         <v>129613</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2024</v>
       </c>
@@ -3876,7 +3900,7 @@
         <v>312695</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2024</v>
       </c>
@@ -3893,7 +3917,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2024</v>
       </c>
@@ -3910,7 +3934,7 @@
         <v>3416154</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2024</v>
       </c>
@@ -3927,7 +3951,7 @@
         <v>1204098</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2024</v>
       </c>
@@ -3944,7 +3968,7 @@
         <v>125712</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2024</v>
       </c>
@@ -3961,7 +3985,7 @@
         <v>117896</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2024</v>
       </c>
@@ -3978,7 +4002,7 @@
         <v>267815</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2024</v>
       </c>
@@ -3995,7 +4019,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2024</v>
       </c>
@@ -4012,7 +4036,7 @@
         <v>3416154</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2024</v>
       </c>
@@ -4029,7 +4053,7 @@
         <v>1294338</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2024</v>
       </c>
@@ -4046,7 +4070,7 @@
         <v>124212</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2024</v>
       </c>
@@ -4063,7 +4087,7 @@
         <v>97434</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2024</v>
       </c>
@@ -4080,7 +4104,7 @@
         <v>430406</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2024</v>
       </c>
@@ -4097,7 +4121,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2024</v>
       </c>
@@ -4114,7 +4138,7 @@
         <v>3416154</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2024</v>
       </c>
@@ -4131,7 +4155,7 @@
         <v>1323606</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2024</v>
       </c>
@@ -4148,7 +4172,7 @@
         <v>100396</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2024</v>
       </c>
@@ -4165,7 +4189,7 @@
         <v>115530</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2024</v>
       </c>
@@ -4182,7 +4206,7 @@
         <v>628458</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2024</v>
       </c>
